--- a/산출물/설계/AND-03.프로그램목록/20200806_개발자 등록_AND-03_프로그램목록_v0.1.xlsx
+++ b/산출물/설계/AND-03.프로그램목록/20200806_개발자 등록_AND-03_프로그램목록_v0.1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\IMS\산출물\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\infogen_ims\산출물\설계\AND-03.프로그램목록\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38370" windowHeight="20115" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38370" windowHeight="20115" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="겉표지" sheetId="1" r:id="rId1"/>
@@ -353,7 +353,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="74">
   <si>
     <t>프로젝트명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -715,10 +715,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FUNC-SK-001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>개발자 등록_프리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -767,18 +763,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스킬 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발자 등록_프리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프리랜서 개발자 정보를 등록, 수정, 삭제한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -791,7 +775,77 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이제영</t>
+    <t>온라인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PGM-PR-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PGM-PR-002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 개발자 정보 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프리, 외주 개발자 정보를 등록, 수정, 삭제하는 화면.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존에 등록되어 있는 개발자 정보를 수정하기 위해
+해당 개발자 정보를 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PGM-PR-003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발자 정보 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발자 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발자 정보를 최초 등록 or 기존 개발자 정보 수정 완료 후 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발자 정보 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">기존 개발자 정보를 삭제 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(데이터 직접 삭제하지 않고
+사용여부 컬럼 N으로 전환)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PGM-PR-004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUNC-PR-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUNC-PR-002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUNC-PR-003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -987,7 +1041,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1060,6 +1114,18 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1075,11 +1141,8 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1387,7 +1450,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1405,16 +1468,16 @@
       <c r="L6" s="5"/>
     </row>
     <row r="8" spans="1:12" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="K8" s="24" t="s">
+      <c r="K8" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="L8" s="24"/>
+      <c r="L8" s="28"/>
     </row>
     <row r="9" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="K9" s="25" t="s">
+      <c r="K9" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="L9" s="26"/>
+      <c r="L9" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1490,14 +1553,14 @@
       <c r="A7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="24">
         <v>44049</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" s="11"/>
     </row>
@@ -1672,8 +1735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1754,51 +1817,95 @@
       <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="19" t="s">
+        <v>57</v>
+      </c>
       <c r="C5" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="11"/>
+        <v>54</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="19" t="s">
+        <v>70</v>
+      </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
+        <v>2</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="E6" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>70</v>
+      </c>
       <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="H6" s="11" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="A7" s="11">
+        <v>3</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>70</v>
+      </c>
       <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="H7" s="11" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="A8" s="11">
+        <v>4</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>70</v>
+      </c>
       <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="H8" s="11" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
@@ -1941,20 +2048,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD37"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9" style="15"/>
+    <col min="1" max="1" width="9" style="15"/>
+    <col min="2" max="2" width="14.5" style="15" customWidth="1"/>
     <col min="3" max="3" width="13.75" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="23" style="15" customWidth="1"/>
     <col min="5" max="5" width="23.75" style="15" customWidth="1"/>
-    <col min="6" max="6" width="35.375" style="15" customWidth="1"/>
+    <col min="6" max="6" width="52.875" style="15" customWidth="1"/>
     <col min="7" max="7" width="9" style="15"/>
     <col min="8" max="8" width="12.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="9" style="15"/>
+    <col min="9" max="9" width="9" style="15"/>
+    <col min="10" max="10" width="22.875" style="15" customWidth="1"/>
+    <col min="11" max="11" width="9" style="15"/>
     <col min="12" max="13" width="9.75" style="15" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="10.375" style="15" bestFit="1" customWidth="1"/>
     <col min="16" max="23" width="9" style="15"/>
@@ -2002,76 +2112,76 @@
       <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="28" t="s">
+      <c r="D4" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="27" t="s">
+      <c r="K4" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27" t="s">
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27" t="s">
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="27" t="s">
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="AA4" s="27"/>
-      <c r="AB4" s="27"/>
-      <c r="AC4" s="27"/>
-      <c r="AD4" s="27"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
       <c r="K5" s="20" t="s">
         <v>26</v>
       </c>
@@ -2137,36 +2247,30 @@
       <c r="A6" s="19">
         <v>1</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="19"/>
+      <c r="B6" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19" t="s">
+        <v>56</v>
+      </c>
       <c r="E6" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>56</v>
+        <v>64</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>60</v>
       </c>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
       <c r="I6" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="J6" s="19">
-        <v>1</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="L6" s="30">
-        <v>44047</v>
-      </c>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30">
-        <v>44049</v>
-      </c>
-      <c r="O6" s="19"/>
+        <v>53</v>
+      </c>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
       <c r="P6" s="19"/>
       <c r="Q6" s="19"/>
       <c r="R6" s="19"/>
@@ -2183,16 +2287,28 @@
       <c r="AC6" s="19"/>
       <c r="AD6" s="19"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
+    <row r="7" spans="1:30" ht="27" x14ac:dyDescent="0.3">
+      <c r="A7" s="19">
+        <v>2</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>58</v>
+      </c>
       <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
+      <c r="D7" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>61</v>
+      </c>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
+      <c r="I7" s="19" t="s">
+        <v>53</v>
+      </c>
       <c r="J7" s="19"/>
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
@@ -2216,15 +2332,27 @@
       <c r="AD7" s="19"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="19">
+        <v>3</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>62</v>
+      </c>
       <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+      <c r="D8" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>65</v>
+      </c>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
+      <c r="I8" s="19" t="s">
+        <v>53</v>
+      </c>
       <c r="J8" s="19"/>
       <c r="K8" s="19"/>
       <c r="L8" s="19"/>
@@ -2247,17 +2375,31 @@
       <c r="AC8" s="19"/>
       <c r="AD8" s="19"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
+    <row r="9" spans="1:30" ht="27" x14ac:dyDescent="0.3">
+      <c r="A9" s="19">
+        <v>4</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>69</v>
+      </c>
       <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+      <c r="D9" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>67</v>
+      </c>
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
+      <c r="I9" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>68</v>
+      </c>
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
       <c r="M9" s="19"/>
